--- a/src/main/java/com/qa/testdata/HybridTestData.xlsx
+++ b/src/main/java/com/qa/testdata/HybridTestData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prathamkumar/eclipse-workspace/HybridTestNGFramework/src/main/java/com/testNg/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prathamkumar/eclipse-workspace/HybridTestNGFramework/src/main/java/com/qa/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56EE85C-0A04-8946-A1D5-2C0694854B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9606F54-3B36-FD42-9215-6D12081BF2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14120" xr2:uid="{82F9A47B-6131-454D-860C-EB3A801A0E09}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14120" activeTab="1" xr2:uid="{82F9A47B-6131-454D-860C-EB3A801A0E09}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="User" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Email</t>
   </si>
@@ -46,13 +47,79 @@
   </si>
   <si>
     <t>Saitama@143</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>dateofbirth</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John_doe </t>
+  </si>
+  <si>
+    <t>john@example.com</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>alice_ smith</t>
+  </si>
+  <si>
+    <t>alice@example.com</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>bob_ johnson</t>
+  </si>
+  <si>
+    <t>bob@example.com</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>emma _davis</t>
+  </si>
+  <si>
+    <t>emma@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,8 +156,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,6 +175,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,13 +198,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -441,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153E3D22-FBE0-BF47-BCA5-51214E7DFAC0}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,4 +598,124 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58D78BF-3F88-2345-93D8-944B21A02949}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7">
+        <v>32874</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7">
+        <v>31182</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1987654321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7">
+        <v>36068</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1765432890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="7">
+        <v>35043</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1654327890</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>